--- a/example_sheet.xlsx
+++ b/example_sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meriko\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meriko\Desktop\root\dev\dej-dea-membership-fee-reminder\dej-deb-membership-fee-reminder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4D4BB9-130E-47C1-8229-CAEE5F19B648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C673A64-1213-42BD-9DDF-880E00206281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16305" yWindow="-8235" windowWidth="16410" windowHeight="14145" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-8355" windowWidth="16440" windowHeight="28320" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auswertung" sheetId="1" r:id="rId1"/>
@@ -55,12 +55,21 @@
     <t>Offener Betrag</t>
   </si>
   <si>
+    <t>Ulrike</t>
+  </si>
+  <si>
+    <t>Kratschmann</t>
+  </si>
+  <si>
     <t>difvj</t>
   </si>
   <si>
     <t>sdifvn</t>
   </si>
   <si>
+    <t>streber123@streber24.de</t>
+  </si>
+  <si>
     <t>Rainer</t>
   </si>
   <si>
@@ -71,15 +80,6 @@
   </si>
   <si>
     <t>Kalr-Harl-Helmut-Peter</t>
-  </si>
-  <si>
-    <t>streber123@streber24.de</t>
-  </si>
-  <si>
-    <t>Ulrike</t>
-  </si>
-  <si>
-    <t>Kratschmann</t>
   </si>
 </sst>
 </file>
@@ -121,7 +121,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -443,16 +443,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="11.42578125"/>
+    <col min="1" max="1024" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,30 +487,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>420</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>67868</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>98</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2">
         <v>609870</v>
@@ -519,24 +519,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>421</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
       <c r="F3">
         <v>67869</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>99</v>
@@ -549,30 +549,30 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>421</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>67869</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>99</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J4">
         <v>609872</v>
@@ -581,118 +581,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{8776BDE4-0DC0-4F66-8177-1B7DB2A42E60}"/>
-    <hyperlink ref="I4" r:id="rId2" xr:uid="{2F45F5A9-2CBF-4F43-8450-83E33BBE75F9}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/example_sheet.xlsx
+++ b/example_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meriko\Desktop\root\dev\dej-dea-membership-fee-reminder\dej-deb-membership-fee-reminder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C673A64-1213-42BD-9DDF-880E00206281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E64C81-BB3C-4436-94E1-F564E0794FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-8355" windowWidth="16440" windowHeight="28320" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auswertung" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1024" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1023" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/example_sheet.xlsx
+++ b/example_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meriko\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meriko\Desktop\root\dev\dej-dea-membership-fee-reminder\dej-deb-membership-fee-reminder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC7909C-EE45-4BA6-BF59-7D53B14B6018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E00A26-F271-4286-8596-764FDEA18E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>Eupen</t>
   </si>
   <si>
-    <t>streber123@streber24.de</t>
-  </si>
-  <si>
     <t>Rainer</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>Jena</t>
   </si>
   <si>
-    <t>meriko03@gmx.de</t>
-  </si>
-  <si>
     <t>Grunnings</t>
   </si>
   <si>
@@ -109,24 +103,22 @@
     <t>01244-786070</t>
   </si>
   <si>
-    <t>meriko.seidel@esperanto.de</t>
+    <t>ulrike.kratschmann@esperanto.de</t>
+  </si>
+  <si>
+    <t>rainer.zufall@esperanto.de</t>
+  </si>
+  <si>
+    <t>firma.grunnings@esperanto.de</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -149,16 +141,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -474,7 +463,7 @@
   <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -550,8 +539,8 @@
       <c r="H2">
         <v>8231657237</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="I2" t="s">
+        <v>27</v>
       </c>
       <c r="J2">
         <v>609870</v>
@@ -565,24 +554,26 @@
         <v>43</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
       </c>
       <c r="F3">
         <v>84083</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>3631648513</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
       <c r="J3">
         <v>609871</v>
       </c>
@@ -595,25 +586,22 @@
         <v>44</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
       </c>
       <c r="F4">
         <v>57840</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>89981012</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="J4">
         <v>609872</v>
@@ -627,21 +615,21 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>19850</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
         <v>29</v>
       </c>
       <c r="J5">
@@ -754,9 +742,7 @@
     <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{DDA73F99-E53C-48E5-BB61-E2A77DB18FCF}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/example_sheet.xlsx
+++ b/example_sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meriko\Desktop\root\dev\dej-dea-membership-fee-reminder\dej-deb-membership-fee-reminder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meriko\Desktop\root\dev\dej-dea-membership-fee-reminder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E00A26-F271-4286-8596-764FDEA18E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70D05CF-EA96-41F6-85DA-36649DB755F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,8 +144,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +464,7 @@
   <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -476,7 +477,7 @@
     <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="1017" width="11.42578125" customWidth="1"/>
@@ -539,7 +540,7 @@
       <c r="H2">
         <v>8231657237</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J2">
@@ -571,7 +572,7 @@
       <c r="H3">
         <v>3631648513</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J3">
@@ -629,7 +630,7 @@
       <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J5">
@@ -741,9 +742,6 @@
     <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{DDA73F99-E53C-48E5-BB61-E2A77DB18FCF}"/>
-  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
